--- a/Clean data sheets/Carbonate chemistry.xlsx
+++ b/Clean data sheets/Carbonate chemistry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48E88B-22EF-F849-90E9-D3535850156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4262BCE-F051-6F47-AE05-E94ECC22C29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35540" yWindow="800" windowWidth="25600" windowHeight="14240" xr2:uid="{98EFEAC8-355F-FA47-9959-F3FCB65573F9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{98EFEAC8-355F-FA47-9959-F3FCB65573F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>Acidic</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>-</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF20A13E-EC74-FB4A-9CA9-2E2D434FF84A}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1870,7 @@
         <v>44587</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>7.7880000000000003</v>
@@ -1890,7 +1890,7 @@
         <v>44588</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54">
         <v>7.8140000000000001</v>
@@ -1910,7 +1910,7 @@
         <v>44589</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>7.7370000000000001</v>
@@ -1945,7 +1945,7 @@
         <v>44592</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56">
         <v>7.7619999999999996</v>
@@ -1980,7 +1980,7 @@
         <v>44593</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>7.7560000000000002</v>
@@ -2000,7 +2000,7 @@
         <v>44594</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58">
         <v>7.7160000000000002</v>
@@ -2020,7 +2020,7 @@
         <v>44595</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>7.7919999999999998</v>
@@ -2055,7 +2055,7 @@
         <v>44596</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>7.8019999999999996</v>
@@ -2075,7 +2075,7 @@
         <v>44599</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>7.7919999999999998</v>
@@ -2110,7 +2110,7 @@
         <v>44600</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62">
         <v>7.8259999999999996</v>
@@ -2130,7 +2130,7 @@
         <v>44602</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63">
         <v>7.8369999999999997</v>
@@ -2165,7 +2165,7 @@
         <v>44604</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64">
         <v>7.8360000000000003</v>
@@ -2200,7 +2200,7 @@
         <v>44606</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65">
         <v>7.8259999999999996</v>
@@ -2235,7 +2235,7 @@
         <v>44607</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66">
         <v>7.8140000000000001</v>
@@ -2255,7 +2255,7 @@
         <v>44608</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67">
         <v>7.7789999999999999</v>
@@ -2275,7 +2275,7 @@
         <v>44609</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>7.8070000000000004</v>
@@ -2310,7 +2310,7 @@
         <v>44610</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69">
         <v>7.7939999999999996</v>
@@ -2330,7 +2330,7 @@
         <v>44613</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>7.7510000000000003</v>
@@ -2365,7 +2365,7 @@
         <v>44614</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>7.76</v>
@@ -2385,7 +2385,7 @@
         <v>44615</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72">
         <v>7.7770000000000001</v>
@@ -2420,7 +2420,7 @@
         <v>44620</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>7.7809999999999997</v>
@@ -2455,7 +2455,7 @@
         <v>44621</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <v>7.7530000000000001</v>
@@ -2475,7 +2475,7 @@
         <v>44623</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>7.7690000000000001</v>
@@ -2495,7 +2495,7 @@
         <v>44624</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76">
         <v>7.7569999999999997</v>
@@ -2530,7 +2530,7 @@
         <v>44625</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77">
         <v>7.76</v>
@@ -2550,7 +2550,7 @@
         <v>44626</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78">
         <v>7.77</v>
@@ -2585,7 +2585,7 @@
         <v>44627</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79">
         <v>7.7690000000000001</v>
@@ -2605,7 +2605,7 @@
         <v>44628</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80">
         <v>7.7779999999999996</v>
@@ -2625,7 +2625,7 @@
         <v>44629</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81">
         <v>7.7690000000000001</v>
@@ -2660,7 +2660,7 @@
         <v>44630</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82">
         <v>7.758</v>
@@ -2680,7 +2680,7 @@
         <v>44634</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83">
         <v>7.7149999999999999</v>
@@ -2715,7 +2715,7 @@
         <v>44635</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C84">
         <v>7.758</v>
@@ -2735,7 +2735,7 @@
         <v>44637</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C85">
         <v>7.7380000000000004</v>
@@ -2770,7 +2770,7 @@
         <v>44641</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C86">
         <v>7.6429999999999998</v>
@@ -2805,7 +2805,7 @@
         <v>44642</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87">
         <v>7.6740000000000004</v>
@@ -2825,7 +2825,7 @@
         <v>44643</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C88">
         <v>7.6890000000000001</v>
@@ -2845,7 +2845,7 @@
         <v>44644</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <v>7.6749999999999998</v>
@@ -2880,7 +2880,7 @@
         <v>44648</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C90">
         <v>7.6909999999999998</v>
@@ -2915,7 +2915,7 @@
         <v>44649</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C91">
         <v>7.665</v>
@@ -2935,7 +2935,7 @@
         <v>44650</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C92">
         <v>7.6890000000000001</v>
@@ -2955,7 +2955,7 @@
         <v>44651</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>7.6859999999999999</v>
@@ -2990,7 +2990,7 @@
         <v>44659</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C94">
         <v>7.7380000000000004</v>
@@ -3025,7 +3025,7 @@
         <v>44671</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>7.62</v>
@@ -3060,7 +3060,7 @@
         <v>44672</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>7.5750000000000002</v>
@@ -3080,7 +3080,7 @@
         <v>44673</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C97">
         <v>7.5570000000000004</v>
@@ -3100,7 +3100,7 @@
         <v>44674</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C98">
         <v>7.54</v>
@@ -3135,7 +3135,7 @@
         <v>44675</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>7.5860000000000003</v>
@@ -3155,7 +3155,7 @@
         <v>44676</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C100">
         <v>7.5620000000000003</v>
@@ -3175,7 +3175,7 @@
         <v>44677</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C101">
         <v>7.5069999999999997</v>
@@ -3210,7 +3210,7 @@
         <v>44678</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>7.5430000000000001</v>
@@ -3230,13 +3230,13 @@
         <v>44679</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>7.6079999999999997</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>12.34</v>
@@ -3250,7 +3250,7 @@
         <v>44680</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>7.5549999999999997</v>
@@ -3285,7 +3285,7 @@
         <v>44683</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>7.5670000000000002</v>
